--- a/data/data_literature_financial return.xlsx
+++ b/data/data_literature_financial return.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/renske_hijbeek_wur_nl/Documents/studenten/Paul/MSc thesis/final/data_Paul_Ravensbergen/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TAMASA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA3FE70-3129-41AC-B85B-236656993BD3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03783A82-6A91-4801-92D3-4DE8E19493F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28664" windowHeight="3410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="3405" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labour requirements" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
+    <sheet name="extra ref" sheetId="3" r:id="rId3"/>
+    <sheet name="Montt2019" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -1597,7 +1599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="245">
   <si>
     <t>Author</t>
   </si>
@@ -2227,13 +2229,118 @@
   </si>
   <si>
     <t>gross margin; cost per kg; returns to labour; labour productivity</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of data </t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Montt</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Food Security</t>
+  </si>
+  <si>
+    <t>Journal of Agricultural Economics</t>
+  </si>
+  <si>
+    <t>Agricultural Systems</t>
+  </si>
+  <si>
+    <t>Is labour a major determinant of yield gaps in sub-Saharan Africa? A study of cereal-based production systems in Southern Ethiopia</t>
+  </si>
+  <si>
+    <t>Labour not land constrains agricultural production and food self-sufficiency in maize-based smallholder farming systems in Mozambique</t>
+  </si>
+  <si>
+    <t>Does Conservation Agriculture Change Labour Requirements? Evidence of Sustainable Intensification in Sub‐Saharan Africa</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1477-9552.12353</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.agsy.2019.04.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12571-015-0480-7</t>
+  </si>
+  <si>
+    <t>area of study</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Ethiopia, Kenya, Malawi, Mozambique and Tanzania</t>
+  </si>
+  <si>
+    <t>Total labour in  hours per ha for different farm types</t>
+  </si>
+  <si>
+    <t>Total labour in days per ha, mean + sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour in days per ha or main tasks for different CA practices </t>
+  </si>
+  <si>
+    <t>Total labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Male labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Female labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Child labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Farm labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Hired labour (person days/ha)</t>
+  </si>
+  <si>
+    <t>Land preparation (person days/ha)</t>
+  </si>
+  <si>
+    <t>Weeding (person days/ha)</t>
+  </si>
+  <si>
+    <t>Harvesting (person days/ha)</t>
+  </si>
+  <si>
+    <t>Threshing (person days/ha)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2267,6 +2374,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2285,16 +2400,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2575,19 +2696,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>37</v>
       </c>
@@ -2595,7 +2716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" ht="129.1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2859,7 +2980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q6" t="s">
         <v>59</v>
       </c>
@@ -2886,7 +3007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q7" t="s">
         <v>60</v>
       </c>
@@ -2907,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2944,7 +3065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -3009,7 +3130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
         <v>113</v>
       </c>
@@ -3067,7 +3188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" t="s">
         <v>115</v>
       </c>
@@ -3096,7 +3217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q13" t="s">
         <v>116</v>
       </c>
@@ -3125,7 +3246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -3191,7 +3312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
         <v>60</v>
       </c>
@@ -3211,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q16" t="s">
         <v>129</v>
       </c>
@@ -3231,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>130</v>
       </c>
@@ -3251,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -3288,7 +3409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
         <v>56</v>
       </c>
@@ -3297,7 +3418,7 @@
         <v>108.75</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -3347,7 +3468,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>59</v>
       </c>
@@ -3364,7 +3485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -3384,7 +3505,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -3419,7 +3540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -3454,7 +3575,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="O25">
         <v>40.299999999999997</v>
       </c>
@@ -3481,9 +3602,9 @@
       <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="116.15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3705,7 +3826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3771,7 +3892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3806,7 +3927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AH7">
         <f>AVERAGE(365,363.1,360.8)</f>
         <v>362.9666666666667</v>
@@ -3862,7 +3983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AH8">
         <f>AVERAGE(371.9,373.1,394.8)</f>
         <v>379.93333333333334</v>
@@ -3875,7 +3996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AH9">
         <f>AVERAGE(350.4,341.2,378.5)</f>
         <v>356.7</v>
@@ -3888,7 +4009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3945,7 +4066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3982,7 +4103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AH12">
         <f>AVERAGE(427.4,412.8,390.3,337.4)</f>
         <v>391.97500000000002</v>
@@ -3995,7 +4116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -4024,7 +4145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -4058,7 +4179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -4108,7 +4229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -4152,7 +4273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4204,7 +4325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -4257,7 +4378,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -4319,7 +4440,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -4360,7 +4481,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AI21">
         <v>918</v>
       </c>
@@ -4368,7 +4489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AI22">
         <v>757</v>
       </c>
@@ -4376,7 +4497,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -4407,7 +4528,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -4448,7 +4569,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -4486,7 +4607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -4536,7 +4657,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -4593,7 +4714,620 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9F643-A350-426A-953B-6E892B16AEB7}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8B020D89-A083-4F0C-B975-E08B37C8AFA4}"/>
+    <hyperlink ref="D3" r:id="rId2" tooltip="Persistent link using digital object identifier" xr:uid="{6801F7DB-9BDB-4C32-B0E2-B16C54A09162}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{950738AC-F433-47B6-BAE1-09DCF6D39159}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B581AF70-6F25-4215-806D-46DD34367965}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>111.4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>193</v>
+      </c>
+      <c r="B3" s="3">
+        <v>60.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>49.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H3" s="3">
+        <v>73</v>
+      </c>
+      <c r="I3" s="3">
+        <v>54.7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>336.1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C5" s="3">
+        <v>128.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>54.3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44.2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>108.1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>222.3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>164</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>148.4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>122.5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H7" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>119.1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="I8" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>131.6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>59.7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I9" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="B10" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>161.1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>46.7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>59.8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>41.2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009810AB5F2911E64683BAEC42E7B886E6" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ca1fbb159048343a84ed76b6e4d91d8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="42935c7d-9f47-4399-b135-59bc620e0da9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d462d4cd21746c9dd51fafdfa118bae1" ns3:_="">
     <xsd:import namespace="42935c7d-9f47-4399-b135-59bc620e0da9"/>
@@ -4763,15 +5497,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4779,6 +5504,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7E26BE-52C2-4F11-8F1B-6B62436245D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5162D2-FE5A-4230-A8FE-C03FB6B6DAFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4792,14 +5525,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7E26BE-52C2-4F11-8F1B-6B62436245D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
